--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_7_5.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_7_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9567938936259895</v>
+        <v>0.9961810909371617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7828747599317909</v>
+        <v>0.6554405765329591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9186253813917655</v>
+        <v>0.9832778155343067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8680026254153006</v>
+        <v>0.9775519168181889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9303698198206425</v>
+        <v>0.9932494120034858</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2889194322688345</v>
+        <v>0.002267069387982614</v>
       </c>
       <c r="H2" t="n">
-        <v>1.451917480105916</v>
+        <v>0.2045453579621217</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2569902458550681</v>
+        <v>0.003108279266530848</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8260115337725646</v>
+        <v>0.001682832270678505</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5415008898138163</v>
+        <v>0.002395555768604676</v>
       </c>
       <c r="L2" t="n">
-        <v>1.170313167467568</v>
+        <v>0.03307283591284981</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5375122624357834</v>
+        <v>0.04761375208889353</v>
       </c>
       <c r="N2" t="n">
-        <v>1.025291379340884</v>
+        <v>1.002235458963613</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5603952722514499</v>
+        <v>0.04964076808937228</v>
       </c>
       <c r="P2" t="n">
-        <v>132.4832148216261</v>
+        <v>142.1785346001621</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.7101434380592</v>
+        <v>221.4054632165951</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9565342036821921</v>
+        <v>0.9961035522360561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7824438911213281</v>
+        <v>0.6552736138492172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9201785101332633</v>
+        <v>0.9829437863479952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8678277698650609</v>
+        <v>0.9770824947861864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9306148283064287</v>
+        <v>0.9931123476738576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2906559801187701</v>
+        <v>0.002313099710456365</v>
       </c>
       <c r="H3" t="n">
-        <v>1.454798701825449</v>
+        <v>0.2046444742236032</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2520852896912343</v>
+        <v>0.00317036780504436</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8271057426664655</v>
+        <v>0.001718022738284279</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5395955046385458</v>
+        <v>0.00244419527166432</v>
       </c>
       <c r="L3" t="n">
-        <v>1.173347304485305</v>
+        <v>0.03340804558356857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5391251989276425</v>
+        <v>0.04809469524236915</v>
       </c>
       <c r="N3" t="n">
-        <v>1.025443392966522</v>
+        <v>1.002280847471577</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5620768747890063</v>
+        <v>0.05014218598858092</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4712298201271</v>
+        <v>142.1383335758952</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.6981584365602</v>
+        <v>221.3652621923283</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9562663790296839</v>
+        <v>0.9960244149726495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7820036028623158</v>
+        <v>0.6551040002249839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9217286007456987</v>
+        <v>0.9826031208744228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8676478913754975</v>
+        <v>0.9766025572290346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9308572023571038</v>
+        <v>0.9929724346104494</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2924469248033121</v>
+        <v>0.002360079008566308</v>
       </c>
       <c r="H4" t="n">
-        <v>1.457742911440805</v>
+        <v>0.2047451641978751</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2471899282824732</v>
+        <v>0.003233689880608132</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8282313840477765</v>
+        <v>0.001754001507720599</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5377106069724722</v>
+        <v>0.002493845694164365</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176450790960101</v>
+        <v>0.03374680498942871</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5407836210568069</v>
+        <v>0.04858064438195842</v>
       </c>
       <c r="N4" t="n">
-        <v>1.025600168372868</v>
+        <v>1.002327171723327</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5638058993816162</v>
+        <v>0.05064882298909591</v>
       </c>
       <c r="P4" t="n">
-        <v>132.4589441648776</v>
+        <v>142.0981203645979</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.6858727813107</v>
+        <v>221.3250489810309</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.955990204024137</v>
+        <v>0.9959436537562364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7815536335443286</v>
+        <v>0.6549315924056486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9232756313992936</v>
+        <v>0.9822557640812247</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8674619256032406</v>
+        <v>0.9761119045038746</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9310964909642009</v>
+        <v>0.9928296373131045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2942937083370731</v>
+        <v>0.002408022355331998</v>
       </c>
       <c r="H5" t="n">
-        <v>1.460751858342104</v>
+        <v>0.2048475129270627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2423042305696924</v>
+        <v>0.003298255722505239</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8293951183512381</v>
+        <v>0.001790783545318554</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5358497042241006</v>
+        <v>0.002544519633911896</v>
       </c>
       <c r="L5" t="n">
-        <v>1.179615385852957</v>
+        <v>0.03408908459443368</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5424884407405129</v>
+        <v>0.04907160436884042</v>
       </c>
       <c r="N5" t="n">
-        <v>1.025761831790749</v>
+        <v>1.002374446581715</v>
       </c>
       <c r="O5" t="n">
-        <v>0.565583296768721</v>
+        <v>0.05116068415904675</v>
       </c>
       <c r="P5" t="n">
-        <v>132.4463540047412</v>
+        <v>142.0578989356058</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.6732826211742</v>
+        <v>221.2848275520388</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9557054527140411</v>
+        <v>0.995861233038455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7810937809204704</v>
+        <v>0.65475665240346</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9248183070751217</v>
+        <v>0.9819011550088275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8672702874077876</v>
+        <v>0.9756103077546185</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9313326350875925</v>
+        <v>0.9926837846946442</v>
       </c>
       <c r="G6" t="n">
-        <v>0.296197841658844</v>
+        <v>0.002456950853796653</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46382689495527</v>
+        <v>0.2049513648693764</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2374322863690764</v>
+        <v>0.003364169600546568</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8305943494742333</v>
+        <v>0.001828386007394233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5340132555374618</v>
+        <v>0.0025962778039704</v>
       </c>
       <c r="L6" t="n">
-        <v>1.182853928831579</v>
+        <v>0.03443495095294273</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5442406100787077</v>
+        <v>0.04956763917917266</v>
       </c>
       <c r="N6" t="n">
-        <v>1.025928515484464</v>
+        <v>1.002422692855539</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5674100595831332</v>
+        <v>0.05167783619818845</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4334553278892</v>
+        <v>142.0176683763358</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.6603839443222</v>
+        <v>221.2445969927689</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9554119298402842</v>
+        <v>0.9957771396110544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7806238546567241</v>
+        <v>0.6545788783403025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9263574675607953</v>
+        <v>0.981539838497536</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8670725764862566</v>
+        <v>0.9750973150403723</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9315656157590816</v>
+        <v>0.9925349744640684</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2981606304672043</v>
+        <v>0.002506872344948544</v>
       </c>
       <c r="H7" t="n">
-        <v>1.466969294044753</v>
+        <v>0.2050568992327064</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2325714435363996</v>
+        <v>0.003431330241131928</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8318315824271705</v>
+        <v>0.001866842773932584</v>
       </c>
       <c r="K7" t="n">
-        <v>0.532201408424675</v>
+        <v>0.002649085530714718</v>
       </c>
       <c r="L7" t="n">
-        <v>1.186158643190649</v>
+        <v>0.03478433484531208</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5460408688616671</v>
+        <v>0.050068676285164</v>
       </c>
       <c r="N7" t="n">
-        <v>1.026100333752029</v>
+        <v>1.002471918276456</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5692869591095325</v>
+        <v>0.05220020349107163</v>
       </c>
       <c r="P7" t="n">
-        <v>132.4202458185738</v>
+        <v>141.9774387610971</v>
       </c>
       <c r="Q7" t="n">
-        <v>211.6471744350069</v>
+        <v>221.2043673775302</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9551093722210712</v>
+        <v>0.9956913326974828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.780143597811695</v>
+        <v>0.6543980593350953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9278914331741538</v>
+        <v>0.9811718207898856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8668687058662147</v>
+        <v>0.9745723314438767</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9317950444910308</v>
+        <v>0.9923831371602175</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3001838346600317</v>
+        <v>0.002557811035510332</v>
       </c>
       <c r="H8" t="n">
-        <v>1.470180773778842</v>
+        <v>0.2051642412051716</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2277270066978308</v>
+        <v>0.003499736483913927</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8331073614650625</v>
+        <v>0.001906198443216439</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5304171840814467</v>
+        <v>0.002702967463565183</v>
       </c>
       <c r="L8" t="n">
-        <v>1.189540197351307</v>
+        <v>0.03513739862697874</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5478903491210917</v>
+        <v>0.05057480633191127</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02627744065108</v>
+        <v>1.002522146713669</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5712151755725529</v>
+        <v>0.05272788054174257</v>
       </c>
       <c r="P8" t="n">
-        <v>132.4067204196004</v>
+        <v>141.9372069010408</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.6336490360334</v>
+        <v>221.1641355174739</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9547977311750686</v>
+        <v>0.9956037874935376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7796528073582967</v>
+        <v>0.6542145640434658</v>
       </c>
       <c r="D9" t="n">
-        <v>0.929420882387414</v>
+        <v>0.9807960194132811</v>
       </c>
       <c r="E9" t="n">
-        <v>0.866658716263573</v>
+        <v>0.9740362029332511</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9320211095170056</v>
+        <v>0.9922280868989035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3022677797696261</v>
+        <v>0.002609781650328062</v>
       </c>
       <c r="H9" t="n">
-        <v>1.473462691800599</v>
+        <v>0.2052731719368668</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2228968331614004</v>
+        <v>0.003569589536284577</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8344214317963859</v>
+        <v>0.001946389596804216</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5286591186505404</v>
+        <v>0.002757989566544397</v>
       </c>
       <c r="L9" t="n">
-        <v>1.19299007956452</v>
+        <v>0.03549400313472507</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5497888501685225</v>
+        <v>0.05108602206404471</v>
       </c>
       <c r="N9" t="n">
-        <v>1.026459864678009</v>
+        <v>1.00257339268671</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5731944997400117</v>
+        <v>0.05326085978595538</v>
       </c>
       <c r="P9" t="n">
-        <v>132.3928839330079</v>
+        <v>141.8969774400505</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.6198125494409</v>
+        <v>221.1239060564836</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9544765695887028</v>
+        <v>0.9955144292496321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7791512239978131</v>
+        <v>0.6540280103522853</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9309443127297305</v>
+        <v>0.9804136925643578</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8664418023208564</v>
+        <v>0.9734872454319181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.932243154109739</v>
+        <v>0.9920699725661378</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3044153887764672</v>
+        <v>0.002662828563985557</v>
       </c>
       <c r="H10" t="n">
-        <v>1.476816782041731</v>
+        <v>0.2053839182666514</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2180856678999098</v>
+        <v>0.003640655527691633</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8357788331771612</v>
+        <v>0.001987542482375437</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5269323193770957</v>
+        <v>0.002814099005033535</v>
       </c>
       <c r="L10" t="n">
-        <v>1.196521876163398</v>
+        <v>0.03585451177769122</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5517385148568724</v>
+        <v>0.05160260229858139</v>
       </c>
       <c r="N10" t="n">
-        <v>1.026647861704174</v>
+        <v>1.002625699951435</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5752271656905069</v>
+        <v>0.05379943191054479</v>
       </c>
       <c r="P10" t="n">
-        <v>132.3787241996325</v>
+        <v>141.8567327024929</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.6056528160655</v>
+        <v>221.0836613189259</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9541458257133184</v>
+        <v>0.9954232553362682</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7786386308429086</v>
+        <v>0.6538386447415756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9324618963296626</v>
+        <v>0.980023425580948</v>
       </c>
       <c r="E11" t="n">
-        <v>0.866218463099103</v>
+        <v>0.9729260386358409</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9324614595938899</v>
+        <v>0.991908479128781</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3066270745940979</v>
+        <v>0.002716953337466345</v>
       </c>
       <c r="H11" t="n">
-        <v>1.480244494828852</v>
+        <v>0.2054963338733371</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2132929673119075</v>
+        <v>0.003713197412122633</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8371764425894136</v>
+        <v>0.002029613642719675</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5252345984518531</v>
+        <v>0.002871407573657712</v>
       </c>
       <c r="L11" t="n">
-        <v>1.200131616872917</v>
+        <v>0.03621876156583594</v>
       </c>
       <c r="M11" t="n">
-        <v>0.553739175599937</v>
+        <v>0.05212440251423842</v>
       </c>
       <c r="N11" t="n">
-        <v>1.026841467875131</v>
+        <v>1.002679070047062</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5773129987033425</v>
+        <v>0.0543434462416577</v>
       </c>
       <c r="P11" t="n">
-        <v>132.3642460210527</v>
+        <v>141.8164882459418</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.5911746374857</v>
+        <v>221.0434168623748</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9538051639752738</v>
+        <v>0.9953302413334446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7781147617847348</v>
+        <v>0.6536463000963134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9339731832854433</v>
+        <v>0.9796256754595885</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8659883199235281</v>
+        <v>0.9723523536702986</v>
       </c>
       <c r="F12" t="n">
-        <v>0.932675708362143</v>
+        <v>0.9917437252312095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3089050812050053</v>
+        <v>0.002772170467538095</v>
       </c>
       <c r="H12" t="n">
-        <v>1.483747609633056</v>
+        <v>0.2056105179636208</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2085201522380395</v>
+        <v>0.003787130244164928</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8386166296995129</v>
+        <v>0.002072620235549831</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5235684258475064</v>
+        <v>0.002929873169533423</v>
       </c>
       <c r="L12" t="n">
-        <v>1.203825234034263</v>
+        <v>0.03658662353181016</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5557923004189652</v>
+        <v>0.05265140518104047</v>
       </c>
       <c r="N12" t="n">
-        <v>1.02704087962423</v>
+        <v>1.002733517268227</v>
       </c>
       <c r="O12" t="n">
-        <v>0.579453529296471</v>
+        <v>0.05489288450303142</v>
       </c>
       <c r="P12" t="n">
-        <v>132.3494424596807</v>
+        <v>141.7762494066389</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.5763710761137</v>
+        <v>221.0031780230719</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9534543910407104</v>
+        <v>0.9952352989171137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7775793830219723</v>
+        <v>0.6534506033331738</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9354772742098809</v>
+        <v>0.9792202933478674</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8657510285043666</v>
+        <v>0.9717652202721827</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9328856341750944</v>
+        <v>0.9915755316525183</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3112507014335917</v>
+        <v>0.002828532387171004</v>
       </c>
       <c r="H13" t="n">
-        <v>1.487327689884841</v>
+        <v>0.2057266920158805</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2037700630447429</v>
+        <v>0.003862481692145305</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8401015489996835</v>
+        <v>0.002116634997146188</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5219358720581116</v>
+        <v>0.002989559392108996</v>
       </c>
       <c r="L13" t="n">
-        <v>1.207603688330158</v>
+        <v>0.03695842595453045</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5578984687499973</v>
+        <v>0.05318394858574346</v>
       </c>
       <c r="N13" t="n">
-        <v>1.027246210122511</v>
+        <v>1.002789093316812</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5816493615737246</v>
+        <v>0.05544809938298945</v>
       </c>
       <c r="P13" t="n">
-        <v>132.3343131552077</v>
+        <v>141.735994585895</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.5612417716408</v>
+        <v>220.9629232023281</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9530933865317668</v>
+        <v>0.9951384293092351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7770321863317011</v>
+        <v>0.6532520520834192</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9369740980480815</v>
+        <v>0.9788069414292881</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8655067619403078</v>
+        <v>0.9711647649758605</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9330912877779732</v>
+        <v>0.9914038554080556</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3136647402471705</v>
+        <v>0.002886038370956892</v>
       </c>
       <c r="H14" t="n">
-        <v>1.490986796672294</v>
+        <v>0.2058445606147022</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1990429241314065</v>
+        <v>0.003939314548578409</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8416301172750933</v>
+        <v>0.002161648441793868</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5203365424475108</v>
+        <v>0.003050481495186139</v>
       </c>
       <c r="L14" t="n">
-        <v>1.211466696805426</v>
+        <v>0.03733405398053759</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5600578008091401</v>
+        <v>0.05372186120153408</v>
       </c>
       <c r="N14" t="n">
-        <v>1.027457529835063</v>
+        <v>1.002845797477521</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5839006208690588</v>
+        <v>0.05600891205246688</v>
       </c>
       <c r="P14" t="n">
-        <v>132.3188611393948</v>
+        <v>141.695741046338</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.5457897558279</v>
+        <v>220.922669662771</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.952721713871365</v>
+        <v>0.9950395567294036</v>
       </c>
       <c r="C15" t="n">
-        <v>0.776473009168265</v>
+        <v>0.6530501905077593</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9384627091895871</v>
+        <v>0.9783851530044436</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8652548841769039</v>
+        <v>0.9705510704759072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9332922140689711</v>
+        <v>0.9912285683155173</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3161501170386729</v>
+        <v>0.00294473340541792</v>
       </c>
       <c r="H15" t="n">
-        <v>1.494726016938965</v>
+        <v>0.20596439436598</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1943417218427681</v>
+        <v>0.004017715562423026</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8432063148193788</v>
+        <v>0.00220765437025087</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5187739762573604</v>
+        <v>0.003112684966336948</v>
       </c>
       <c r="L15" t="n">
-        <v>1.215419038096148</v>
+        <v>0.03771363366344148</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5622722801620873</v>
+        <v>0.0542653978647344</v>
       </c>
       <c r="N15" t="n">
-        <v>1.027675094319201</v>
+        <v>1.002903674109617</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5862093751926651</v>
+        <v>0.05657558819669564</v>
       </c>
       <c r="P15" t="n">
-        <v>132.3030762485555</v>
+        <v>141.6554739809045</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.5300048649886</v>
+        <v>220.8824025973376</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9523392222905455</v>
+        <v>0.9949387138545071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7759014770471711</v>
+        <v>0.6528452764008815</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9399429510342212</v>
+        <v>0.9779553874300519</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8649956659937161</v>
+        <v>0.9699235870129291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9334884759705124</v>
+        <v>0.9910497294451079</v>
       </c>
       <c r="G16" t="n">
-        <v>0.318707840000825</v>
+        <v>0.00300459809214188</v>
       </c>
       <c r="H16" t="n">
-        <v>1.498547854864384</v>
+        <v>0.2060860402316511</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1896669507398901</v>
+        <v>0.00409759934956166</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8448284471515579</v>
+        <v>0.002254693995517054</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5172476841517323</v>
+        <v>0.003176148843540113</v>
       </c>
       <c r="L16" t="n">
-        <v>1.219462208532984</v>
+        <v>0.03809696057965573</v>
       </c>
       <c r="M16" t="n">
-        <v>0.564542150774258</v>
+        <v>0.05481421432568271</v>
       </c>
       <c r="N16" t="n">
-        <v>1.027898991829925</v>
+        <v>1.002962704085167</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5885758788960758</v>
+        <v>0.05714776891059322</v>
       </c>
       <c r="P16" t="n">
-        <v>132.2869609158432</v>
+        <v>141.6152229326304</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.5138895322762</v>
+        <v>220.8421515490635</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9519456859522365</v>
+        <v>0.9948357724098038</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7753174112472793</v>
+        <v>0.6526370936163688</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9414138605773542</v>
+        <v>0.9775173121838276</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8647286847929647</v>
+        <v>0.9692818357233156</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9336797293852681</v>
+        <v>0.9908672194832859</v>
       </c>
       <c r="G17" t="n">
-        <v>0.321339419307165</v>
+        <v>0.003065708580556623</v>
       </c>
       <c r="H17" t="n">
-        <v>1.502453505557636</v>
+        <v>0.2062096265255659</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1850216521002715</v>
+        <v>0.004179027718433721</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8464991587987777</v>
+        <v>0.002302803215852902</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5157603421112067</v>
+        <v>0.003240915467143311</v>
       </c>
       <c r="L17" t="n">
-        <v>1.223604418481921</v>
+        <v>0.03848443723661654</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5668680792805015</v>
+        <v>0.05536884124267568</v>
       </c>
       <c r="N17" t="n">
-        <v>1.028129354564544</v>
+        <v>1.003022962491822</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5910008269941659</v>
+        <v>0.05772600744367857</v>
       </c>
       <c r="P17" t="n">
-        <v>132.2705146669329</v>
+        <v>141.5749531035841</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.497443283366</v>
+        <v>220.8018817200172</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9515407836137721</v>
+        <v>0.994730733318687</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7747204778622527</v>
+        <v>0.6524256183768498</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9428749111022313</v>
+        <v>0.9770703277403234</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8644537137735464</v>
+        <v>0.9686253128608189</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9338657606737799</v>
+        <v>0.9906808098538586</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3240470031088798</v>
+        <v>0.003128064322496035</v>
       </c>
       <c r="H18" t="n">
-        <v>1.506445201851934</v>
+        <v>0.2063351673629991</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1804074893549748</v>
+        <v>0.004262112107381618</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8482198690341695</v>
+        <v>0.002352019794858762</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5143136115698975</v>
+        <v>0.00330706595112019</v>
       </c>
       <c r="L18" t="n">
-        <v>1.227845631457172</v>
+        <v>0.03887586976028684</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5692512653555368</v>
+        <v>0.05592910085542262</v>
       </c>
       <c r="N18" t="n">
-        <v>1.028366370567548</v>
+        <v>1.003084448789061</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5934854702342908</v>
+        <v>0.05831011846803743</v>
       </c>
       <c r="P18" t="n">
-        <v>132.2537334047759</v>
+        <v>141.5346817861054</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.4806620212089</v>
+        <v>220.7616104025384</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.95112431644474</v>
+        <v>0.9946235391184198</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7741103576481341</v>
+        <v>0.6522107963890955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9443256788230546</v>
+        <v>0.9766148493476461</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8641707914953047</v>
+        <v>0.9679536316562656</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9340464996465171</v>
+        <v>0.9904905745748057</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3268319209858522</v>
+        <v>0.003191699430322941</v>
       </c>
       <c r="H19" t="n">
-        <v>1.510525078533091</v>
+        <v>0.2064626949747567</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1758258008674634</v>
+        <v>0.004346775331089999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8499903365584222</v>
+        <v>0.002402372726887562</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5129080383786592</v>
+        <v>0.00337457402898878</v>
       </c>
       <c r="L19" t="n">
-        <v>1.232184862772674</v>
+        <v>0.03927141387553932</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5716921557847827</v>
+        <v>0.05649512749187261</v>
       </c>
       <c r="N19" t="n">
-        <v>1.028610156227469</v>
+        <v>1.003147196613608</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5960302744224494</v>
+        <v>0.05890024203023777</v>
       </c>
       <c r="P19" t="n">
-        <v>132.2366184866623</v>
+        <v>141.4944035345218</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.4635471030953</v>
+        <v>220.7213321509548</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9506958756619209</v>
+        <v>0.9945141763001267</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7734868302568607</v>
+        <v>0.6519923878762652</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9457651757553792</v>
+        <v>0.9761507965716055</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8638792636751373</v>
+        <v>0.9672666279630486</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9342215029262227</v>
+        <v>0.9902964752425736</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3296969064733525</v>
+        <v>0.003256621923489536</v>
       </c>
       <c r="H20" t="n">
-        <v>1.514694609069616</v>
+        <v>0.2065923517027292</v>
       </c>
       <c r="I20" t="n">
-        <v>0.171279706804317</v>
+        <v>0.004433032340471885</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8518146557362205</v>
+        <v>0.002453874317275352</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5115470705995027</v>
+        <v>0.003443453328873618</v>
       </c>
       <c r="L20" t="n">
-        <v>1.236638378085768</v>
+        <v>0.03967105658465792</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5741923949978374</v>
+        <v>0.05706681981230018</v>
       </c>
       <c r="N20" t="n">
-        <v>1.028860950832046</v>
+        <v>1.003211213873097</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5986369539950125</v>
+        <v>0.05949627247631218</v>
       </c>
       <c r="P20" t="n">
-        <v>132.219163023603</v>
+        <v>141.4541296812778</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.4460916400361</v>
+        <v>220.6810582977108</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9502553307058774</v>
+        <v>0.9944025805586885</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7728495595333758</v>
+        <v>0.6517704749611459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9471931004646746</v>
+        <v>0.9756777574989484</v>
       </c>
       <c r="E21" t="n">
-        <v>0.863579602694269</v>
+        <v>0.9665641037209821</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9343908559522036</v>
+        <v>0.9900983830577499</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3326428326229384</v>
+        <v>0.003322869976292255</v>
       </c>
       <c r="H21" t="n">
-        <v>1.518956041331921</v>
+        <v>0.2067240887952829</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1667701591298627</v>
+        <v>0.004520959700968094</v>
       </c>
       <c r="J21" t="n">
-        <v>0.853689870506193</v>
+        <v>0.002506539413707346</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5102300437869185</v>
+        <v>0.00351374955733772</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24133989040427</v>
+        <v>0.04007478499211421</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5767519680269313</v>
+        <v>0.05764434036652909</v>
       </c>
       <c r="N21" t="n">
-        <v>1.029118830806316</v>
+        <v>1.003276538209548</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6013054933470016</v>
+        <v>0.06009837927616698</v>
       </c>
       <c r="P21" t="n">
-        <v>132.2013718786549</v>
+        <v>141.4138528375712</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.428300495088</v>
+        <v>220.6407814540043</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9498022493795736</v>
+        <v>0.9942886761897476</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7721981839348796</v>
+        <v>0.6515449997969396</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9486085153952019</v>
+        <v>0.9751950736128896</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8632708063754526</v>
+        <v>0.965845683972278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9345540078401977</v>
+        <v>0.9898960859511098</v>
       </c>
       <c r="G22" t="n">
-        <v>0.33567258953818</v>
+        <v>0.003390488530108094</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523311792958373</v>
+        <v>0.2068579405927757</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1623001187511258</v>
+        <v>0.004610679816088408</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8556222522806896</v>
+        <v>0.002560396125089799</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5089612420647909</v>
+        <v>0.003585537970589104</v>
       </c>
       <c r="L22" t="n">
-        <v>1.246156035033258</v>
+        <v>0.04048280308736919</v>
       </c>
       <c r="M22" t="n">
-        <v>0.579372582660053</v>
+        <v>0.05822790164610171</v>
       </c>
       <c r="N22" t="n">
-        <v>1.029384049143664</v>
+        <v>1.003343213937709</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6040376729704753</v>
+        <v>0.06070678396754938</v>
       </c>
       <c r="P22" t="n">
-        <v>132.183238059977</v>
+        <v>141.3735625175921</v>
       </c>
       <c r="Q22" t="n">
-        <v>211.4101666764101</v>
+        <v>220.6004911340252</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.949336551029771</v>
+        <v>0.9941724461471694</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7715325204767376</v>
+        <v>0.6513158732981401</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9500108737807312</v>
+        <v>0.9747029609386604</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8629534020217099</v>
+        <v>0.9651110077836229</v>
       </c>
       <c r="F23" t="n">
-        <v>0.93471104904185</v>
+        <v>0.9896895990448393</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3387867165476534</v>
+        <v>0.00345948770425892</v>
       </c>
       <c r="H23" t="n">
-        <v>1.527763087568068</v>
+        <v>0.2069939599802124</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1578713124176772</v>
+        <v>0.004702152531584508</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8576085013093993</v>
+        <v>0.002615471508976897</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5077399620075932</v>
+        <v>0.003658813202274561</v>
       </c>
       <c r="L23" t="n">
-        <v>1.251094187841903</v>
+        <v>0.04089499811993373</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5820538777017583</v>
+        <v>0.05881740987376884</v>
       </c>
       <c r="N23" t="n">
-        <v>1.029656653055744</v>
+        <v>1.003411251035803</v>
       </c>
       <c r="O23" t="n">
-        <v>0.606833116293152</v>
+        <v>0.06132138878091856</v>
       </c>
       <c r="P23" t="n">
-        <v>132.1647690486585</v>
+        <v>141.3332695264555</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.3916976650916</v>
+        <v>220.5601981428885</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9488577247170292</v>
+        <v>0.9940538353204329</v>
       </c>
       <c r="C24" t="n">
-        <v>0.770852074934264</v>
+        <v>0.6510829882714699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9513995555256586</v>
+        <v>0.9742015689926306</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8626263921027628</v>
+        <v>0.9643590052503906</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9348614470876973</v>
+        <v>0.9894788584807167</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3419886303057498</v>
+        <v>0.003529900214730641</v>
       </c>
       <c r="H24" t="n">
-        <v>1.532313230043752</v>
+        <v>0.2071322105921532</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1534856984615437</v>
+        <v>0.004795350055714655</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8596548599249261</v>
+        <v>0.002671845771327313</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5065703445307639</v>
+        <v>0.003733597913520985</v>
       </c>
       <c r="L24" t="n">
-        <v>1.256159061980674</v>
+        <v>0.04131153914316951</v>
       </c>
       <c r="M24" t="n">
-        <v>0.584797939724269</v>
+        <v>0.05941296335590946</v>
       </c>
       <c r="N24" t="n">
-        <v>1.029936941629056</v>
+        <v>1.003480681763649</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6096939987169524</v>
+        <v>0.06194229620775958</v>
       </c>
       <c r="P24" t="n">
-        <v>132.1459555743843</v>
+        <v>141.2929713524363</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.3728841908174</v>
+        <v>220.5198999688694</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9483656242195813</v>
+        <v>0.9939328179011053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7701566366091368</v>
+        <v>0.6508464039372799</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9527732727650033</v>
+        <v>0.9736902280658811</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8622906046093384</v>
+        <v>0.9635901143407258</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9350052814537646</v>
+        <v>0.9892637251312082</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3452793085980991</v>
+        <v>0.003601741382523792</v>
       </c>
       <c r="H25" t="n">
-        <v>1.536963629326077</v>
+        <v>0.2072726572728394</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1491473441059409</v>
+        <v>0.004890396872355416</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8617561467371663</v>
+        <v>0.002729486079630502</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5054517715641182</v>
+        <v>0.003809941475992959</v>
       </c>
       <c r="L25" t="n">
-        <v>1.26135030877785</v>
+        <v>0.04173232369353753</v>
       </c>
       <c r="M25" t="n">
-        <v>0.587604721388536</v>
+        <v>0.06001450976658721</v>
       </c>
       <c r="N25" t="n">
-        <v>1.030225000456831</v>
+        <v>1.003551521228621</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6126202708875063</v>
+        <v>0.06256945169451261</v>
       </c>
       <c r="P25" t="n">
-        <v>132.1268031987054</v>
+        <v>141.2526756662118</v>
       </c>
       <c r="Q25" t="n">
-        <v>211.3537318151384</v>
+        <v>220.4796042826448</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9478598548956106</v>
+        <v>0.9938093059472206</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7694458541553028</v>
+        <v>0.6506061333946856</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9541318229300775</v>
+        <v>0.9731688461977902</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8619449812536828</v>
+        <v>0.9628038601034843</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9351420697745809</v>
+        <v>0.9890441246188535</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3486613903963445</v>
+        <v>0.003675063413788354</v>
       </c>
       <c r="H26" t="n">
-        <v>1.541716634867718</v>
+        <v>0.2074152922460704</v>
       </c>
       <c r="I26" t="n">
-        <v>0.144856889085688</v>
+        <v>0.004987310074925151</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8639189842861015</v>
+        <v>0.002788428038846866</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5043879943737196</v>
+        <v>0.003887870283739982</v>
       </c>
       <c r="L26" t="n">
-        <v>1.266676865989381</v>
+        <v>0.0421575317433964</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5904755629120857</v>
+        <v>0.06062230129076554</v>
       </c>
       <c r="N26" t="n">
-        <v>1.030521060548911</v>
+        <v>1.003623820908944</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6156133300781746</v>
+        <v>0.06320311816217712</v>
       </c>
       <c r="P26" t="n">
-        <v>132.1073081116927</v>
+        <v>141.2123697820272</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.3342367281257</v>
+        <v>220.4392983984602</v>
       </c>
     </row>
   </sheetData>
